--- a/materials/conditions.xlsx
+++ b/materials/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikolaj/Desktop/eyetracker/conditions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty_Ania\eyetrackery\eyetracker\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6DE581-1FCB-DE4B-AC76-DB9775F9538B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2EC6E0-1419-44F6-BD25-FFDDA04BA2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conditions" sheetId="1" r:id="rId1"/>
@@ -61,65 +61,55 @@
     <t>smartband</t>
   </si>
   <si>
-    <t>Posiada ekran o przekątnej 15.6" i wysokiej rozdzielczości. Matowa powłoka matrycy pozwala na korzystanie z komputera nawet przy dużym słońcu.\n
-Wyposażony w dwurdzeniowy procesor.\n
-Wbudowana pamięć RAM o pojemności 8 GB pozwala na uruchomienie kilku aplikacji jednocześnie oraz granie w wymagające sprzętowo gry komputerowe.\n
-Dysk SSD o pojemności 256 GB.\n
-ślad węglowy: 423 kg</t>
-  </si>
-  <si>
-    <t>Posiada czytelny wyświetlacz o przekątnej 10,5 cala.\n
-Jest zasilany akumulatorem o pojemności 7040 mAh i ma opcję szybkiego ładowania.\n
-Posiada dwa aparaty. Przedni pozwala robić selfie i nagrywać filmy z ręki, a tylny umożliwia nagrywanie filmów w Full HD.\n
-Wbudowane 4 GB pamięci RAM pozwala obsługiwać nawet kilka aplikacji naraz.\n
-ślad węglowy: 170 kg</t>
-  </si>
-  <si>
-    <t>Czytelny wyświetlacz 1.4”.\n
-Bezprzewodowa łączność ze smartphonem (kompatybilny zarówno z Androidem jak i iOSem).\n
-Asystent zdrowotny z funkcjami pomiaru ciśnienia i EKG, analiza składu ciała, zaawansowana analiza snu, czujniki aktywności fizycznej.\n
-Bateria pracuje do 40 godzin i naładujesz ją od 0% do 100% w godzinę i 48 minut.\n
-Posiada 16 GB pamięci wewnętrznej.\n
-ślad węglowy: 43 kg</t>
-  </si>
-  <si>
-    <t>Bezprzewodowa łączność ze smartphonem (kompatybilny zarówno z Androidem jak i iOSem).\n
-Automatycznie wykrywa 3 tryby: bieżnia, bieganie lub spacery na świeżym powietrzu.\n
-Przy standardowym użytkowaniu działa do 14 dni na jednym naładowaniu baterii - w trybie oszczędzania baterii maksymalnie do 20 dni.\n
-ślad węglowy: 36 kg</t>
-  </si>
-  <si>
-    <t>Bardzo dobre wykonanie, minimalistyczny wygląd, podoba mi się, że nie ma zbędnych naklejek. Praca na nim przebiega płynnie, ekran rzeczywiście ładnie odwzorowuje kolory. Polecam!\n
+    <t>cena: 2259 zł</t>
+  </si>
+  <si>
+    <t>cena: 719 zł</t>
+  </si>
+  <si>
+    <t>cena: 1939 zł</t>
+  </si>
+  <si>
+    <t>cena: 249 zł</t>
+  </si>
+  <si>
+    <t>Ekran o przekątnej 15.6" i wysokiej rozdzielczości z matową powłoką ograniczającą odbijanie się promieni słonecznych. \n Dwurdzeniowy procesor i 8 GB pamięci RAM  pozwalającej na uruchomienie kilku aplikacji jednocześnie oraz granie w wymagające sprzętowo gry komputerowe, pojemność dysku SSD 256 GB.\n
+Ślad węglowy to 423 kg</t>
+  </si>
+  <si>
+    <t>Praca na nim przebiega płynnie, ekran rzeczywiście ładnie odwzorowuje kolory. Polecam!\n
 Ogólnie spoko, szybko przyzwyczaiłam się do klawiatury, wentylator chodzi na tyle cicho, że mi nie przeszkadza, bateria starcza na tyle, ile powinna. Bardzo fajny laptop.\n
-Urządzenie w całości z tworzywa, jednak dobrze spasowane i sprawia wrażenie solidnego. Matryca i działanie na zadowalającym poziomie. Bateria daje radę kiedy np. jestem w podróży :).</t>
-  </si>
-  <si>
-    <t>jestem zadowolona , jakość adekwatna do ceny , a nawet lepsza.\n
-Świetny wygląd, komfort użytkowania i osiągi jak na ten budżet. Polecam!\n
-Solidny, dobrze wykonany. Działa sprawnie, jest pojemny, nie grzeje się przesadnie. Kupiłem go dla córki, katuje go dziennie (gry, lekcje, bajki, etc). Daje radę. Polecam!\n
-Miał służyć do przeglądania filmików i grania. W tych funkcjach spisuje się bez zarzutu.</t>
-  </si>
-  <si>
-    <t>Super Smartwatch. Pomógł mi zadbać o zdrowie, fajnie się z nim ćwiczy. Bateria mi trzymała raczej nieźle, a jestem na to wyczulona. Ogólnie Polecam. Jestem super zadowolona. (Idealnie współpracuje z moim smartfonem).\n
+Urządzenie w całości z solidnego i trwałego tworzywa, firma stawia na zrównoważony rozwój :).</t>
+  </si>
+  <si>
+    <t>Posiada czytelny wyświetlacz o przekątnej 10,5 cala i dwa aparaty, tylny aparat pozwala nagrywać w Full HD.\n
+Akumulator o pojemności 7040 mAh z opcją szybkiego ładowania, 4 GB pamięci RAM pozwala obsługiwać kilka aplikacji naraz.\n
+Ślad węglowy: 170 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jestem zadowolona, jakość adekwatna do ceny , a nawet lepsza.\n
+Działa sprawnie, jest pojemny, nie grzeje się przesadnie. Kupiłem go dla córki, katuje go dziennie (gry, lekcje, bajki, etc). Daje radę. Polecam!\n
+Solidny, dobrze wykonany, przez pro-ekolofgiczną firmę. Dla mnie spełnia oczekiwania. </t>
+  </si>
+  <si>
+    <t>Pomógł mi zadbać o zdrowie, fajnie się z nim ćwiczy. Bateria mi trzymała raczej nieźle, a jestem na to wyczulona. Ogólnie Polecam. Jestem super zadowolona. (Idealnie współpracuje z moim smartfonem).\n
 Warty każdej złotówki. To zdecydowanie nie jest zabawka. Porządnie złożony, świetnie zaprojektowany. Spełnia oczekiwania w 100%, gorąco polecam.\n
-Super sprzęt. Zegarek i do sportu i do noszenia na co dzień. Opcja z GPS pozwoliła mi dość dokładnie śledzić swoją pozycję na trasie joggingowej.</t>
+Super sprzęt. Zegarek i do sportu i do noszenia na co dzień. Do tego wykonany z troską o środowisko.</t>
+  </si>
+  <si>
+    <t>Bezprzewodowa łączność ze smartphonem (Android i iOS), automatyczne wykrywanie 3 trybów: bieżnia, bieganie lub spacery na świeżym powietrzu.\n
+Przy standardowym użytkowaniu  do 14 dni na jednym naładowaniu baterii - w trybie oszczędzania baterii maksymalnie do 20 dni.\n
+Ślad węglowy: 36 kg</t>
+  </si>
+  <si>
+    <t>Czytelny wyświetlacz 1.4”, bezprzewodowa łączność ze smartphonem (Android i iOS), asystent zdrowotny z funkcjami pomiaru ciśnienia i EKG, analizą składu ciała, zaawansowaną analiza snu i czujnikami aktywności fizycznej.\n
+Bateria pracuje do 40 godzin, można ją naładować od 0% w 1 godzinę i 48 minut, posiada 16 GB pamięci wewnętrznej. \n
+Ślad węglowy: 43 kg</t>
   </si>
   <si>
     <t>Bardzo dobry zakup. Wygląda jak smartwatch, estetycznie wykonany , posiada wielorakie funkcje, których szukałem. No i możliwości sparowania są na plus!\n
 Udany zakup. Spełnił wszystkie moje oczekiwania. Nawet na chudszej ręce dobrze się prezentuje. Zgrabny, czytelny, wygodny.\n
-Wygląda jak opaska, ale możliwości ma raczej smartwatcha. Dla mnie super!</t>
-  </si>
-  <si>
-    <t>cena: 2259 zł</t>
-  </si>
-  <si>
-    <t>cena: 719 zł</t>
-  </si>
-  <si>
-    <t>cena: 1939 zł</t>
-  </si>
-  <si>
-    <t>cena: 249 zł</t>
+Przyjazny środowisku :) . Do tego wygląda jak opaska, ale możliwości ma raczej smartwatcha. Dla mnie super!</t>
   </si>
 </sst>
 </file>
@@ -685,7 +675,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013 — 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
       <a:dk1>
@@ -973,7 +963,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -984,12 +974,17 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1006,69 +1001,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="252" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>

--- a/materials/conditions.xlsx
+++ b/materials/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty_Ania\eyetrackery\eyetracker\materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikolaj/Desktop/eyetracker/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2EC6E0-1419-44F6-BD25-FFDDA04BA2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEFD521-FF38-794E-8F6C-CAFCAA6DAB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conditions" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>png/smartwatch.png</t>
   </si>
   <si>
-    <t>png/smartband.png</t>
-  </si>
-  <si>
     <t>smartband</t>
   </si>
   <si>
@@ -71,10 +68,6 @@
   </si>
   <si>
     <t>cena: 249 zł</t>
-  </si>
-  <si>
-    <t>Ekran o przekątnej 15.6" i wysokiej rozdzielczości z matową powłoką ograniczającą odbijanie się promieni słonecznych. \n Dwurdzeniowy procesor i 8 GB pamięci RAM  pozwalającej na uruchomienie kilku aplikacji jednocześnie oraz granie w wymagające sprzętowo gry komputerowe, pojemność dysku SSD 256 GB.\n
-Ślad węglowy to 423 kg</t>
   </si>
   <si>
     <t>Praca na nim przebiega płynnie, ekran rzeczywiście ładnie odwzorowuje kolory. Polecam!\n
@@ -110,6 +103,14 @@
     <t>Bardzo dobry zakup. Wygląda jak smartwatch, estetycznie wykonany , posiada wielorakie funkcje, których szukałem. No i możliwości sparowania są na plus!\n
 Udany zakup. Spełnił wszystkie moje oczekiwania. Nawet na chudszej ręce dobrze się prezentuje. Zgrabny, czytelny, wygodny.\n
 Przyjazny środowisku :) . Do tego wygląda jak opaska, ale możliwości ma raczej smartwatcha. Dla mnie super!</t>
+  </si>
+  <si>
+    <t>Ekran o przekątnej 15.6" i wysokiej rozdzielczości z matową powłoką ograniczającą odbijanie się promieni słonecznych\n 
+Dwurdzeniowy procesor i 8 GB pamięci RAM  pozwalającej na uruchomienie kilku aplikacji jednocześnie oraz granie w wymagające sprzętowo gry komputerowe, pojemność dysku SSD 256 GB.\n
+Ślad węglowy to 423 kg</t>
+  </si>
+  <si>
+    <t>png/smartband2.png</t>
   </si>
 </sst>
 </file>
@@ -675,7 +676,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013 — 2022">
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
       <a:dk1>
@@ -963,7 +964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -973,18 +974,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1001,72 +1002,72 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="388" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="252" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="346.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="388" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="323" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/materials/conditions.xlsx
+++ b/materials/conditions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikolaj/Desktop/eyetracker/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEFD521-FF38-794E-8F6C-CAFCAA6DAB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1923230-B6F0-5046-B568-9B952258180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 Ślad węglowy to 423 kg</t>
   </si>
   <si>
-    <t>png/smartband2.png</t>
+    <t>png/smartband.png</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013 — 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
       <a:dk1>
@@ -964,7 +964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -975,7 +975,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/materials/conditions.xlsx
+++ b/materials/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikolaj/Desktop/eyetracker/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1923230-B6F0-5046-B568-9B952258180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693580C7-3FBD-DB4C-B1D5-C385F790476D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,47 +70,47 @@
     <t>cena: 249 zł</t>
   </si>
   <si>
-    <t>Praca na nim przebiega płynnie, ekran rzeczywiście ładnie odwzorowuje kolory. Polecam!\n
-Ogólnie spoko, szybko przyzwyczaiłam się do klawiatury, wentylator chodzi na tyle cicho, że mi nie przeszkadza, bateria starcza na tyle, ile powinna. Bardzo fajny laptop.\n
+    <t>png/smartband.png</t>
+  </si>
+  <si>
+    <t>Ekran o przekątnej 15.6" i wysokiej rozdzielczości z matową powłoką ograniczającą odbijanie się promieni słonecznych. \n
+Dwurdzeniowy procesor i 8 GB pamięci RAM  pozwalającej na uruchomienie kilku aplikacji jednocześnie oraz granie w wymagające sprzętowo gry komputerowe, pojemność dysku SSD 256 GB. \n
+Ślad węglowy to 423 kg</t>
+  </si>
+  <si>
+    <t>Praca na nim przebiega płynnie, ekran rzeczywiście ładnie odwzorowuje kolory. Polecam! \n
+Ogólnie spoko, szybko przyzwyczaiłam się do klawiatury, wentylator chodzi na tyle cicho, że mi nie przeszkadza, bateria starcza na tyle, ile powinna. Bardzo fajny laptop. \n
 Urządzenie w całości z solidnego i trwałego tworzywa, firma stawia na zrównoważony rozwój :).</t>
   </si>
   <si>
-    <t>Posiada czytelny wyświetlacz o przekątnej 10,5 cala i dwa aparaty, tylny aparat pozwala nagrywać w Full HD.\n
-Akumulator o pojemności 7040 mAh z opcją szybkiego ładowania, 4 GB pamięci RAM pozwala obsługiwać kilka aplikacji naraz.\n
+    <t>Posiada czytelny wyświetlacz o przekątnej 10,5 cala i dwa aparaty, tylny aparat pozwala nagrywać w Full HD. \n
+Akumulator o pojemności 7040 mAh z opcją szybkiego ładowania, 4 GB pamięci RAM pozwala obsługiwać kilka aplikacji naraz. \n
 Ślad węglowy: 170 kg</t>
   </si>
   <si>
-    <t xml:space="preserve">Jestem zadowolona, jakość adekwatna do ceny , a nawet lepsza.\n
-Działa sprawnie, jest pojemny, nie grzeje się przesadnie. Kupiłem go dla córki, katuje go dziennie (gry, lekcje, bajki, etc). Daje radę. Polecam!\n
+    <t xml:space="preserve">Jestem zadowolona, jakość adekwatna do ceny , a nawet lepsza. \n
+Działa sprawnie, jest pojemny, nie grzeje się przesadnie. Kupiłem go dla córki, katuje go dziennie (gry, lekcje, bajki, etc). Daje radę. Polecam! \n
 Solidny, dobrze wykonany, przez pro-ekolofgiczną firmę. Dla mnie spełnia oczekiwania. </t>
   </si>
   <si>
-    <t>Pomógł mi zadbać o zdrowie, fajnie się z nim ćwiczy. Bateria mi trzymała raczej nieźle, a jestem na to wyczulona. Ogólnie Polecam. Jestem super zadowolona. (Idealnie współpracuje z moim smartfonem).\n
-Warty każdej złotówki. To zdecydowanie nie jest zabawka. Porządnie złożony, świetnie zaprojektowany. Spełnia oczekiwania w 100%, gorąco polecam.\n
-Super sprzęt. Zegarek i do sportu i do noszenia na co dzień. Do tego wykonany z troską o środowisko.</t>
-  </si>
-  <si>
-    <t>Bezprzewodowa łączność ze smartphonem (Android i iOS), automatyczne wykrywanie 3 trybów: bieżnia, bieganie lub spacery na świeżym powietrzu.\n
-Przy standardowym użytkowaniu  do 14 dni na jednym naładowaniu baterii - w trybie oszczędzania baterii maksymalnie do 20 dni.\n
-Ślad węglowy: 36 kg</t>
-  </si>
-  <si>
-    <t>Czytelny wyświetlacz 1.4”, bezprzewodowa łączność ze smartphonem (Android i iOS), asystent zdrowotny z funkcjami pomiaru ciśnienia i EKG, analizą składu ciała, zaawansowaną analiza snu i czujnikami aktywności fizycznej.\n
+    <t>Czytelny wyświetlacz 1.4”, bezprzewodowa łączność ze smartphonem (Android i iOS), asystent zdrowotny z funkcjami pomiaru ciśnienia i EKG, analizą składu ciała, zaawansowaną analiza snu i czujnikami aktywności fizycznej. \n
 Bateria pracuje do 40 godzin, można ją naładować od 0% w 1 godzinę i 48 minut, posiada 16 GB pamięci wewnętrznej. \n
 Ślad węglowy: 43 kg</t>
   </si>
   <si>
-    <t>Bardzo dobry zakup. Wygląda jak smartwatch, estetycznie wykonany , posiada wielorakie funkcje, których szukałem. No i możliwości sparowania są na plus!\n
-Udany zakup. Spełnił wszystkie moje oczekiwania. Nawet na chudszej ręce dobrze się prezentuje. Zgrabny, czytelny, wygodny.\n
+    <t>Pomógł mi zadbać o zdrowie, fajnie się z nim ćwiczy. Bateria mi trzymała raczej nieźle, a jestem na to wyczulona. Ogólnie Polecam. Jestem super zadowolona. (Idealnie współpracuje z moim smartfonem). \n
+Warty każdej złotówki. To zdecydowanie nie jest zabawka. Porządnie złożony, świetnie zaprojektowany. Spełnia oczekiwania w 100%, gorąco polecam. \n
+Super sprzęt. Zegarek i do sportu i do noszenia na co dzień. Do tego wykonany z troską o środowisko.</t>
+  </si>
+  <si>
+    <t>Bezprzewodowa łączność ze smartphonem (Android i iOS), automatyczne wykrywanie 3 trybów: bieżnia, bieganie lub spacery na świeżym powietrzu. \n
+Przy standardowym użytkowaniu  do 14 dni na jednym naładowaniu baterii - w trybie oszczędzania baterii maksymalnie do 20 dni. \n
+Ślad węglowy: 36 kg</t>
+  </si>
+  <si>
+    <t>Bardzo dobry zakup. Wygląda jak smartwatch, estetycznie wykonany , posiada wielorakie funkcje, których szukałem. No i możliwości sparowania są na plus! \n
+Udany zakup. Spełnił wszystkie moje oczekiwania. Nawet na chudszej ręce dobrze się prezentuje. Zgrabny, czytelny, wygodny. \n
 Przyjazny środowisku :) . Do tego wygląda jak opaska, ale możliwości ma raczej smartwatcha. Dla mnie super!</t>
-  </si>
-  <si>
-    <t>Ekran o przekątnej 15.6" i wysokiej rozdzielczości z matową powłoką ograniczającą odbijanie się promieni słonecznych\n 
-Dwurdzeniowy procesor i 8 GB pamięci RAM  pozwalającej na uruchomienie kilku aplikacji jednocześnie oraz granie w wymagające sprzętowo gry komputerowe, pojemność dysku SSD 256 GB.\n
-Ślad węglowy to 423 kg</t>
-  </si>
-  <si>
-    <t>png/smartband.png</t>
   </si>
 </sst>
 </file>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1024,10 +1024,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1044,7 +1044,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1058,16 +1058,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/materials/conditions.xlsx
+++ b/materials/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikolaj/Desktop/eyetracker/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693580C7-3FBD-DB4C-B1D5-C385F790476D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59534E7F-2ED3-D648-832D-EEBEA76D78E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,11 +73,6 @@
     <t>png/smartband.png</t>
   </si>
   <si>
-    <t>Ekran o przekątnej 15.6" i wysokiej rozdzielczości z matową powłoką ograniczającą odbijanie się promieni słonecznych. \n
-Dwurdzeniowy procesor i 8 GB pamięci RAM  pozwalającej na uruchomienie kilku aplikacji jednocześnie oraz granie w wymagające sprzętowo gry komputerowe, pojemność dysku SSD 256 GB. \n
-Ślad węglowy to 423 kg</t>
-  </si>
-  <si>
     <t>Praca na nim przebiega płynnie, ekran rzeczywiście ładnie odwzorowuje kolory. Polecam! \n
 Ogólnie spoko, szybko przyzwyczaiłam się do klawiatury, wentylator chodzi na tyle cicho, że mi nie przeszkadza, bateria starcza na tyle, ile powinna. Bardzo fajny laptop. \n
 Urządzenie w całości z solidnego i trwałego tworzywa, firma stawia na zrównoważony rozwój :).</t>
@@ -93,11 +88,6 @@
 Solidny, dobrze wykonany, przez pro-ekolofgiczną firmę. Dla mnie spełnia oczekiwania. </t>
   </si>
   <si>
-    <t>Czytelny wyświetlacz 1.4”, bezprzewodowa łączność ze smartphonem (Android i iOS), asystent zdrowotny z funkcjami pomiaru ciśnienia i EKG, analizą składu ciała, zaawansowaną analiza snu i czujnikami aktywności fizycznej. \n
-Bateria pracuje do 40 godzin, można ją naładować od 0% w 1 godzinę i 48 minut, posiada 16 GB pamięci wewnętrznej. \n
-Ślad węglowy: 43 kg</t>
-  </si>
-  <si>
     <t>Pomógł mi zadbać o zdrowie, fajnie się z nim ćwiczy. Bateria mi trzymała raczej nieźle, a jestem na to wyczulona. Ogólnie Polecam. Jestem super zadowolona. (Idealnie współpracuje z moim smartfonem). \n
 Warty każdej złotówki. To zdecydowanie nie jest zabawka. Porządnie złożony, świetnie zaprojektowany. Spełnia oczekiwania w 100%, gorąco polecam. \n
 Super sprzęt. Zegarek i do sportu i do noszenia na co dzień. Do tego wykonany z troską o środowisko.</t>
@@ -111,6 +101,16 @@
     <t>Bardzo dobry zakup. Wygląda jak smartwatch, estetycznie wykonany , posiada wielorakie funkcje, których szukałem. No i możliwości sparowania są na plus! \n
 Udany zakup. Spełnił wszystkie moje oczekiwania. Nawet na chudszej ręce dobrze się prezentuje. Zgrabny, czytelny, wygodny. \n
 Przyjazny środowisku :) . Do tego wygląda jak opaska, ale możliwości ma raczej smartwatcha. Dla mnie super!</t>
+  </si>
+  <si>
+    <t>Ekran o przekątnej 15,6 cala i wysokiej rozdzielczości z matową powłoką ograniczającą odbijanie się promieni słonecznych. \n
+Dwurdzeniowy procesor i 8 GB pamięci RAM  pozwalającej na uruchomienie kilku aplikacji jednocześnie oraz granie w wymagające sprzętowo gry komputerowe, pojemność dysku SSD 256 GB. \n
+Ślad węglowy to 423 kg</t>
+  </si>
+  <si>
+    <t>Czytelny wyświetlacz 1,4 cala, bezprzewodowa łączność ze smartphonem (Android i iOS), asystent zdrowotny z funkcjami pomiaru ciśnienia i EKG, analizą składu ciała, zaawansowaną analiza snu i czujnikami aktywności fizycznej. \n
+Bateria pracuje do 40 godzin, można ją naładować od 0% w 1 godzinę i 48 minut, posiada 16 GB pamięci wewnętrznej. \n
+Ślad węglowy: 43 kg</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1024,10 +1024,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1041,10 +1041,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1058,10 +1058,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>

--- a/materials/conditions.xlsx
+++ b/materials/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikolaj/Desktop/eyetracker/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59534E7F-2ED3-D648-832D-EEBEA76D78E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB70913-4055-8142-BE7D-1652779EC2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conditions" sheetId="1" r:id="rId1"/>
@@ -58,18 +58,6 @@
     <t>smartband</t>
   </si>
   <si>
-    <t>cena: 2259 zł</t>
-  </si>
-  <si>
-    <t>cena: 719 zł</t>
-  </si>
-  <si>
-    <t>cena: 1939 zł</t>
-  </si>
-  <si>
-    <t>cena: 249 zł</t>
-  </si>
-  <si>
     <t>png/smartband.png</t>
   </si>
   <si>
@@ -111,6 +99,18 @@
     <t>Czytelny wyświetlacz 1,4 cala, bezprzewodowa łączność ze smartphonem (Android i iOS), asystent zdrowotny z funkcjami pomiaru ciśnienia i EKG, analizą składu ciała, zaawansowaną analiza snu i czujnikami aktywności fizycznej. \n
 Bateria pracuje do 40 godzin, można ją naładować od 0% w 1 godzinę i 48 minut, posiada 16 GB pamięci wewnętrznej. \n
 Ślad węglowy: 43 kg</t>
+  </si>
+  <si>
+    <t>CENA: 1939 zł</t>
+  </si>
+  <si>
+    <t>CENA: 719 zł</t>
+  </si>
+  <si>
+    <t>CENA: 2259 zł</t>
+  </si>
+  <si>
+    <t>CENA: 249 zł</t>
   </si>
 </sst>
 </file>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1024,13 +1024,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1041,13 +1041,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1058,16 +1058,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
